--- a/Cafiem/Ekonomi/bokföring/bokföringEx.xlsx
+++ b/Cafiem/Ekonomi/bokföring/bokföringEx.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="48" windowWidth="6660" windowHeight="5040"/>
+    <workbookView xWindow="288" yWindow="48" windowWidth="6660" windowHeight="5040" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="mina ex" sheetId="5" r:id="rId1"/>
+    <sheet name="inköp_ex" sheetId="5" r:id="rId1"/>
     <sheet name="kvitton" sheetId="9" r:id="rId2"/>
     <sheet name="kostnadstyp" sheetId="6" r:id="rId3"/>
     <sheet name="exempel" sheetId="1" r:id="rId4"/>
     <sheet name="ex konto" sheetId="2" r:id="rId5"/>
     <sheet name="BAS 2017" sheetId="8" r:id="rId6"/>
+    <sheet name="konto_ex" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'BAS 2017'!$A$1:$I$1262</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3318" uniqueCount="1415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3346" uniqueCount="1430">
   <si>
     <t>Ingående moms</t>
   </si>
@@ -4447,17 +4448,108 @@
     <t>betalning Leverantör</t>
   </si>
   <si>
-    <t>företagskonto</t>
-  </si>
-  <si>
     <t>A3</t>
+  </si>
+  <si>
+    <t>Inköpt på privat kreditkort</t>
+  </si>
+  <si>
+    <t>Först ett utlägg med skuld till 2893</t>
+  </si>
+  <si>
+    <t>Utbetalning till privat bankkonto</t>
+  </si>
+  <si>
+    <t>Skulder till närstående</t>
+  </si>
+  <si>
+    <t>Verifikation serie</t>
+  </si>
+  <si>
+    <t>kassa/bank händelse</t>
+  </si>
+  <si>
+    <t>manuell verifikation blir A</t>
+  </si>
+  <si>
+    <t>inköp av ...</t>
+  </si>
+  <si>
+    <t>Förbrukningsinventarie vs. förbrukningsmaterial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Med förbrukningsinventarie och förbrukningsmaterial menar vi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">såklart kostnadskontona 5410 Förbrukningsinventarie och 5460 </t>
+  </si>
+  <si>
+    <t>Förbrukningsmaterial.</t>
+  </si>
+  <si>
+    <t>glödlampor, toalettpapper och papperspåsar</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Förbrukningsinventarier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> inventarier med kort livslängd, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>är material som har en livslängd</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> kortare än 1 år</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">det vill säga </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kortare än 3 år men i  allmänhet längre än 1 år.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4587,8 +4679,23 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4627,6 +4734,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF5F5F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4741,7 +4854,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5132,13 +5245,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5166,14 +5289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -5193,15 +5309,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5235,15 +5351,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5277,15 +5393,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5319,15 +5435,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5361,15 +5477,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5403,15 +5519,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5733,348 +5849,478 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="30.109375" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="37.77734375" style="19" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1407</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>1408</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>1406</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3"/>
-      <c r="B3" s="24" t="s">
-        <v>1412</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="24">
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E2" s="5">
         <v>2440</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="151">
+      <c r="G2" s="2"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12">
         <v>2359</v>
       </c>
-      <c r="H3" s="151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="24">
-        <v>1930</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>1413</v>
-      </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="151">
-        <v>2359</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2">
+        <v>2641</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="15">
+        <v>48</v>
+      </c>
+      <c r="H3" s="12">
+        <v>471.75</v>
+      </c>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="14">
+        <v>5420</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="12">
+        <v>1887</v>
+      </c>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2">
+        <v>3740</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="13"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>1410</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1411</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="24" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="24">
         <v>2440</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F8" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12">
+      <c r="G8" s="24"/>
+      <c r="H8" s="140">
         <v>2359</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2">
+      <c r="I8" s="140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="143" customFormat="1">
+      <c r="A10" s="141"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="142"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="139"/>
+      <c r="B11" s="139"/>
+      <c r="C11" s="139"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="139"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="136" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D12" s="136" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="E13" s="15">
+        <v>1930</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18">
+        <v>428.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="E14" s="15">
         <v>2641</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="F14" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="15">
+      <c r="G14" s="15">
         <v>48</v>
       </c>
-      <c r="G8" s="12">
-        <v>471.75</v>
-      </c>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="14">
-        <v>5420</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="12">
-        <v>1887</v>
-      </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2">
-        <v>3740</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="150"/>
-      <c r="B12" s="150"/>
-      <c r="C12" s="150"/>
-      <c r="D12" s="150"/>
-      <c r="E12" s="150"/>
-      <c r="F12" s="150"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="138" t="s">
+      <c r="H14" s="18">
+        <v>85.78</v>
+      </c>
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="E15" s="134">
+        <v>6100</v>
+      </c>
+      <c r="F15" s="135" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="135"/>
+      <c r="H15" s="18">
+        <v>343.12</v>
+      </c>
+      <c r="I15" s="18"/>
+    </row>
+    <row r="16" spans="1:9" s="143" customFormat="1">
+      <c r="A16" s="141"/>
+      <c r="B16" s="141"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="136" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="136"/>
+      <c r="C17" s="136" t="s">
         <v>1409</v>
       </c>
-      <c r="C13" s="138" t="s">
+      <c r="D17" s="136" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="E17" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="F17" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17" t="s">
+      <c r="G17" s="16"/>
+      <c r="H17" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="I17" s="17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="D14" s="15">
+    <row r="18" spans="1:9">
+      <c r="E18" s="15">
         <v>1930</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="F18" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18">
-        <v>428.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="D15" s="15">
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18">
+        <v>7083</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="E19" s="15">
         <v>2641</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="F19" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="15">
+      <c r="G19" s="15">
         <v>48</v>
       </c>
-      <c r="G15" s="18">
-        <v>85.78</v>
-      </c>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="D16" s="134">
-        <v>6100</v>
-      </c>
-      <c r="E16" s="135" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="135"/>
-      <c r="G16" s="18">
-        <v>343.12</v>
-      </c>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="138" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="138" t="s">
-        <v>1409</v>
-      </c>
-      <c r="C18" s="138" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="D19" s="15">
+      <c r="H19" s="18">
+        <v>1416.6</v>
+      </c>
+      <c r="I19" s="18"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="15">
+        <v>5410</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="18">
+        <f>I18-H19</f>
+        <v>5666.4</v>
+      </c>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="1:9" s="143" customFormat="1">
+      <c r="A21" s="141"/>
+      <c r="B21" s="141"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="142"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="24" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2893</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>1417</v>
+      </c>
+      <c r="G22" s="24"/>
+      <c r="H22" s="140">
+        <v>0</v>
+      </c>
+      <c r="I22" s="140">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="2">
+        <v>2641</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="24">
+        <v>48</v>
+      </c>
+      <c r="H23" s="140">
+        <v>25</v>
+      </c>
+      <c r="I23" s="140" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="2">
+        <v>5410</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="144"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="24" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B26" s="144" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="15">
         <v>1930</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="F26" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18">
-        <v>7083</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="D20" s="15">
-        <v>2641</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="15">
-        <v>48</v>
-      </c>
-      <c r="G20" s="18">
-        <v>1416.6</v>
-      </c>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="136">
-        <v>5410</v>
-      </c>
-      <c r="E21" s="137" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="137"/>
-      <c r="G21" s="18">
-        <f>H19-G20</f>
-        <v>5666.4</v>
-      </c>
-      <c r="H21" s="18"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="140">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3">
+        <v>2893</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="24"/>
+      <c r="H27" s="140">
+        <v>125</v>
+      </c>
+      <c r="I27" s="140" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="144" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6128,7 +6374,7 @@
       <c r="B5" t="s">
         <v>1393</v>
       </c>
-      <c r="C5" s="148">
+      <c r="C5" s="137">
         <v>43106</v>
       </c>
       <c r="E5">
@@ -6151,7 +6397,7 @@
       <c r="B6" t="s">
         <v>1403</v>
       </c>
-      <c r="C6" s="148">
+      <c r="C6" s="137">
         <v>43099</v>
       </c>
       <c r="F6" t="s">
@@ -6169,42 +6415,42 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="C7" s="148"/>
-      <c r="F7" s="149" t="s">
+      <c r="C7" s="137"/>
+      <c r="F7" s="138" t="s">
         <v>1405</v>
       </c>
-      <c r="G7" s="149">
+      <c r="G7" s="138">
         <v>621</v>
       </c>
-      <c r="H7" s="149">
+      <c r="H7" s="138">
         <f>G7-I7</f>
         <v>621</v>
       </c>
-      <c r="I7" s="149">
+      <c r="I7" s="138">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="C8" s="148"/>
-      <c r="G8" s="149">
+      <c r="C8" s="137"/>
+      <c r="G8" s="138">
         <v>219</v>
       </c>
-      <c r="H8" s="149">
+      <c r="H8" s="138">
         <f>G8-I8</f>
         <v>175.2</v>
       </c>
-      <c r="I8" s="149">
+      <c r="I8" s="138">
         <v>43.8</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B11" t="s">
         <v>1393</v>
       </c>
-      <c r="C11" s="148">
+      <c r="C11" s="137">
         <v>43078</v>
       </c>
       <c r="E11">
@@ -6231,7 +6477,7 @@
       <c r="B12" t="s">
         <v>1393</v>
       </c>
-      <c r="D12" s="148">
+      <c r="D12" s="137">
         <v>43068</v>
       </c>
       <c r="E12">
@@ -6251,7 +6497,7 @@
       <c r="B13" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="148">
+      <c r="D13" s="137">
         <v>43063</v>
       </c>
       <c r="E13">
@@ -6271,7 +6517,7 @@
       <c r="B14" t="s">
         <v>1388</v>
       </c>
-      <c r="D14" s="148">
+      <c r="D14" s="137">
         <v>43052</v>
       </c>
       <c r="E14">
@@ -6292,7 +6538,7 @@
       <c r="B15" t="s">
         <v>1386</v>
       </c>
-      <c r="D15" s="148">
+      <c r="D15" s="137">
         <v>43045</v>
       </c>
       <c r="E15">
@@ -6312,7 +6558,7 @@
       <c r="A16" t="s">
         <v>1384</v>
       </c>
-      <c r="D16" s="148">
+      <c r="D16" s="137">
         <v>43010</v>
       </c>
       <c r="E16">
@@ -9726,23 +9972,23 @@
       <c r="H124" s="46"/>
     </row>
     <row r="125" spans="2:8" ht="14.4">
-      <c r="C125" s="143"/>
+      <c r="C125" s="149"/>
       <c r="D125" s="58"/>
       <c r="E125" s="59"/>
-      <c r="F125" s="145">
+      <c r="F125" s="151">
         <v>1438</v>
       </c>
-      <c r="G125" s="145" t="s">
+      <c r="G125" s="151" t="s">
         <v>132</v>
       </c>
       <c r="H125" s="46"/>
     </row>
     <row r="126" spans="2:8" ht="14.4">
-      <c r="C126" s="144"/>
+      <c r="C126" s="150"/>
       <c r="D126" s="60"/>
       <c r="E126" s="61"/>
-      <c r="F126" s="146"/>
-      <c r="G126" s="146"/>
+      <c r="F126" s="152"/>
+      <c r="G126" s="152"/>
       <c r="H126" s="46"/>
     </row>
     <row r="127" spans="2:8" ht="28.8">
@@ -12856,10 +13102,10 @@
         <v>677</v>
       </c>
       <c r="E331" s="48"/>
-      <c r="F331" s="147" t="s">
+      <c r="F331" s="153" t="s">
         <v>678</v>
       </c>
-      <c r="G331" s="147"/>
+      <c r="G331" s="153"/>
       <c r="H331" s="46"/>
     </row>
     <row r="332" spans="2:8" ht="14.4">
@@ -12902,10 +13148,10 @@
         <v>15</v>
       </c>
       <c r="E334" s="48"/>
-      <c r="F334" s="147" t="s">
+      <c r="F334" s="153" t="s">
         <v>681</v>
       </c>
-      <c r="G334" s="147"/>
+      <c r="G334" s="153"/>
       <c r="H334" s="46"/>
     </row>
     <row r="335" spans="2:8" ht="14.4">
@@ -21456,27 +21702,27 @@
       <c r="H891" s="46"/>
     </row>
     <row r="892" spans="1:8" ht="28.8">
-      <c r="C892" s="139">
+      <c r="C892" s="145">
         <v>7030</v>
       </c>
       <c r="D892" s="112" t="s">
         <v>333</v>
       </c>
       <c r="E892" s="113"/>
-      <c r="F892" s="141">
+      <c r="F892" s="147">
         <v>7031</v>
       </c>
-      <c r="G892" s="141" t="s">
+      <c r="G892" s="147" t="s">
         <v>333</v>
       </c>
       <c r="H892" s="46"/>
     </row>
     <row r="893" spans="1:8" ht="14.4">
-      <c r="C893" s="140"/>
+      <c r="C893" s="146"/>
       <c r="D893" s="43"/>
       <c r="E893" s="48"/>
-      <c r="F893" s="142"/>
-      <c r="G893" s="142"/>
+      <c r="F893" s="148"/>
+      <c r="G893" s="148"/>
       <c r="H893" s="46"/>
     </row>
     <row r="894" spans="1:8" ht="37.799999999999997">
@@ -26786,4 +27032,68 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="72.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="154" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="20" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>